--- a/PYTHON/EstudiantesAzarNombres/grado 9b 2024.xlsx
+++ b/PYTHON/EstudiantesAzarNombres/grado 9b 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Obsidian\DOCENCIA\PROGRAMACION\PYTHON\EstudiantesAzarNombres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Mi unidad\Obsidian\PROGRAMACION\PYTHON\EstudiantesAzarNombres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB978EF4-37A1-43E6-B7BB-C11184241309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA19DE-B961-41DC-B6A7-B621DE1C0188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EA8F0CAF-ECDA-4CE6-BFFB-E85DBA76ADF9}"/>
   </bookViews>
@@ -36,76 +36,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Estudiantes</t>
   </si>
   <si>
-    <t>Barba Palacios Trini Dayana</t>
-  </si>
-  <si>
-    <t>Chima Andrade Jose Angel</t>
-  </si>
-  <si>
-    <t>Cuadrado Ramos Andres Felipe</t>
-  </si>
-  <si>
-    <t>Cuadrado Ramos Faber Daniel</t>
-  </si>
-  <si>
-    <t>Fabra De Hoyos Yiceth Milena</t>
-  </si>
-  <si>
-    <t>Guerrero Perez Janier Mauricio</t>
-  </si>
-  <si>
-    <t>Jaramillo Peñate Alejandro</t>
-  </si>
-  <si>
-    <t>Laza Solano Valeria</t>
-  </si>
-  <si>
-    <t>Lopez Oviedo Juan Camilo</t>
-  </si>
-  <si>
-    <t>Lopez Roqueme Luis Felipe</t>
-  </si>
-  <si>
-    <t>Marquez Rosario Jennifer Liceth</t>
-  </si>
-  <si>
-    <t>Martinez Carvajal Yohan Sebastian</t>
-  </si>
-  <si>
-    <t>Matias Manchego Elias</t>
-  </si>
-  <si>
-    <t>Mendez Oliveros Ana Isabel</t>
-  </si>
-  <si>
-    <t>Negrete Florez Cristina Isabel</t>
-  </si>
-  <si>
-    <t>Nestra Baron Arnidis</t>
-  </si>
-  <si>
-    <t>Peñate Peñate Jhonjan Esthiventh</t>
-  </si>
-  <si>
-    <t>Regino Roqueme Eliana Sofia</t>
-  </si>
-  <si>
-    <t>Tordecilla Perez Ludis Yineth</t>
-  </si>
-  <si>
-    <t>Toro Torreglosa Marlon Camilo</t>
+    <t>Bolaños Martinez Edier</t>
+  </si>
+  <si>
+    <t>Carvajal Navarro Santiago</t>
+  </si>
+  <si>
+    <t>Correa Bello Yuleice Lized</t>
+  </si>
+  <si>
+    <t>Diaz Durango Stiven</t>
+  </si>
+  <si>
+    <t>Dorado Campo Yeider Jose</t>
+  </si>
+  <si>
+    <t>Lopez Mazo Andres Felipe</t>
+  </si>
+  <si>
+    <t>Lopez Mazo Juan Diego</t>
+  </si>
+  <si>
+    <t>Lopez Reyes Jhoan Andres</t>
+  </si>
+  <si>
+    <t>Marquez Vertel Jafeth</t>
+  </si>
+  <si>
+    <t>Martinez Ballesteros Yuver Andres</t>
+  </si>
+  <si>
+    <t>Mendez Morelo Liney Saneth</t>
+  </si>
+  <si>
+    <t>Montalvo Alvarez Caterine</t>
+  </si>
+  <si>
+    <t>Montes Palacio Juan Jose</t>
+  </si>
+  <si>
+    <t>Montiel Barba Eimer David</t>
+  </si>
+  <si>
+    <t>Morelo Anaya Andres Felipe</t>
+  </si>
+  <si>
+    <t>Navarro Villero Shara Giscell</t>
+  </si>
+  <si>
+    <t>Nisperuza Estrada Jose David</t>
+  </si>
+  <si>
+    <t>Pacheco Berrio Yair Jose</t>
+  </si>
+  <si>
+    <t>Pacheco Berrio Yiset Paola</t>
+  </si>
+  <si>
+    <t>Padilla Bolaño Jhonatan Jose</t>
+  </si>
+  <si>
+    <t>Peñate Peñate Dairis Marcela</t>
+  </si>
+  <si>
+    <t>Polo Lopez Yimerson David</t>
+  </si>
+  <si>
+    <t>Romero Marin Halison Taliana</t>
+  </si>
+  <si>
+    <t>Salas Calvo Kariet Dayanna</t>
+  </si>
+  <si>
+    <t>Salgado Bello Yostin</t>
+  </si>
+  <si>
+    <t>Teran Marquez Karen Paola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +140,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,14 +159,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,10 +169,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="double">
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -181,13 +208,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,117 +550,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FB6EC6-DA1D-45BA-9DFC-7308E0DD06AE}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" thickBot="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" thickBot="1">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" thickBot="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" thickBot="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" thickBot="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15" thickBot="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15" thickBot="1">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15" thickBot="1">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" thickBot="1">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" thickBot="1">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" thickBot="1">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" thickBot="1">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
